--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-IDX-MNG-01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\BICNS\코스콤\단위테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 결과서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,39 @@
   </si>
   <si>
     <t>2. 지수 분류 코드에 해당하는 요약 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 발표지수, 산출지수, 프로젝트, 조회 요청 건수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 ID, 사용자 기관코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 발표한 지수 건수를 출력 한다. 
+2. 산출진행중 지수 건수를 출력한다.
+3. 지수등록 건수를 출력한다. 
+4. 조회 요청 건수를 출력한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 요청 처리시 메시지 처리가 정상 출력 되는 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 지수 정보 공개 요청 처리 리스트를 출력한다. 
+2. 요청처리시 허가/ 불허가 처리가 정상적인지 확인 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 지수 정보 공개 요청 처리 리스트 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.정보 공개 요청 승인 하시겠습니까?
+2. 정보 공개 요청 거절 하시겠습니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,128 +558,143 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,8 +791,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>89207</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5118407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1039,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1055,10 +1103,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1066,115 +1114,115 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="4"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1189,342 +1237,345 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="28"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="27" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="12" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="108" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="C12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="C13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="C14" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1535,6 +1586,19 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1547,7 +1611,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1562,311 +1626,307 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
@@ -1881,6 +1941,11 @@
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="E5:F5"/>
@@ -1890,7 +1955,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1901,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1917,15 +1981,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1933,699 +1997,705 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="40"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="40"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="40"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="40"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="40"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="14"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="40"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="40"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="43"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A7:J33"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>